--- a/ItemList.xlsx
+++ b/ItemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduationWork\FarmLiveWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3F29C3-A75A-4BFB-B152-E247F7BA11FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19661CBB-75A9-4D0A-9174-CDE7037445F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1A1D993-C7F9-4DAF-A582-7AE275A8172D}"/>
   </bookViews>
@@ -31,7 +31,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+  <si>
+    <t>딸기 씨앗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토 씨앗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물뿌리개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자전거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤인머스캣 씨앗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤인머스캣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래해서 돈을 얻을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토마토를 심을 때 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기를 심을 때 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤인머스캣을 심을 때 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨앗에 물을 주면 작물이 성장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타고 다닐수 있으며 타면 속도가 빨라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,14 +462,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CF6F1-4F53-47ED-B466-A482AE8CFDB8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>10</v>
+      </c>
+      <c r="F1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>300</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3000</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/ItemList.xlsx
+++ b/ItemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduationWork\FarmLiveWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19661CBB-75A9-4D0A-9174-CDE7037445F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F471A5-0C37-4C76-9131-2AF83090F8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1A1D993-C7F9-4DAF-A582-7AE275A8172D}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/ItemList.xlsx
+++ b/ItemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduationWork\FarmLiveWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F471A5-0C37-4C76-9131-2AF83090F8EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1418B203-894B-4AC0-ABAC-D219D0037E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1A1D993-C7F9-4DAF-A582-7AE275A8172D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>딸기 씨앗</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Crop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Other</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +94,86 @@
   </si>
   <si>
     <t>타고 다닐수 있으며 타면 속도가 빨라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파란꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른색을 띠며 길거리에서 찾을 수 있으며 판매할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색을 띠며 길거리에서 찾을 수 있으며 판매할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간꽃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도넛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샌드위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잊어버리지 않게 메모할 수 있는 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 전체적인 형태, 위치를 확인할 수 있는 아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8CF6F1-4F53-47ED-B466-A482AE8CFDB8}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,7 +554,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -498,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -515,10 +591,10 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -532,13 +608,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -552,13 +628,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -572,13 +648,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -592,19 +668,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -612,21 +688,321 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>3000</v>
       </c>
-      <c r="F8" t="b">
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>200</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>150</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>250</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>120</v>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>150</v>
+      </c>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>150</v>
+      </c>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>250</v>
+      </c>
+      <c r="F23" t="b">
         <v>0</v>
       </c>
     </row>

--- a/ItemList.xlsx
+++ b/ItemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduationWork\FarmLiveWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1418B203-894B-4AC0-ABAC-D219D0037E2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CA685A-CA49-492C-A4BD-D961C08E2E7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D1A1D993-C7F9-4DAF-A582-7AE275A8172D}"/>
   </bookViews>
@@ -31,149 +31,169 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
-  <si>
-    <t>딸기 씨앗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토 씨앗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물뿌리개</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자전거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="48">
   <si>
     <t>Seed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seed_tomato</t>
+  </si>
+  <si>
+    <t>토마토 씨앗, 토마토를 심을 때 사용된다.</t>
+  </si>
+  <si>
+    <t>Seed_strawberry</t>
+  </si>
+  <si>
+    <t>딸기 씨앗, 딸기를 심을 때 사용된다.</t>
+  </si>
+  <si>
+    <t>Seed_shinemusket</t>
+  </si>
+  <si>
+    <t>샤인머스켓 씨앗, 샤인머스캣을 심을 때 사용된다.</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>Shinemusket</t>
+  </si>
+  <si>
+    <t>Blueflower</t>
+  </si>
+  <si>
+    <t>Redflower</t>
   </si>
   <si>
     <t>Other</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤인머스캣 씨앗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤인머스캣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거래해서 돈을 얻을 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토마토를 심을 때 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>딸기를 심을 때 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤인머스캣을 심을 때 사용된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>씨앗에 물을 주면 작물이 성장한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타고 다닐수 있으며 타면 속도가 빨라진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파란꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸른색을 띠며 길거리에서 찾을 수 있으며 판매할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간색을 띠며 길거리에서 찾을 수 있으며 판매할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빨간꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메모장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바나나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>햄버거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당근</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도넛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>콜라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이스크림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샌드위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잊어버리지 않게 메모할 수 있는 아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵의 전체적인 형태, 위치를 확인할 수 있는 아이템</t>
+  </si>
+  <si>
+    <t>Watering</t>
+  </si>
+  <si>
+    <t>Bike</t>
+  </si>
+  <si>
+    <t>Firewood</t>
+  </si>
+  <si>
+    <t>Diary</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Hamburger</t>
+  </si>
+  <si>
+    <t>Carrot</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Donut</t>
+  </si>
+  <si>
+    <t>Cola</t>
+  </si>
+  <si>
+    <t>Icecream</t>
+  </si>
+  <si>
+    <t>Plate</t>
+  </si>
+  <si>
+    <t>Sandwich</t>
+  </si>
+  <si>
+    <t>토마토, 거래해서 돈을 얻을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤인머스켓, 거래해서 돈을 얻을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기, 거래해서 돈을 얻을 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른꽃, 푸른색을 띠며 길거리에서 찾을 수 있으며 판매할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간꽃, 빨간색을 띠며 길거리에서 찾을 수 있으며 판매할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물뿌리개, 씨앗에 물을 주면 작물이 성장한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오토바이, 타고 다닐수 있으며 타면 속도가 빨라진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장작, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모장, 잊어버리지 않게 메모할 수 있는 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도, 맵의 전체적인 형태, 위치를 확인할 수 있는 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바나나, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당근, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도넛, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접시, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샌드위치, 퀘스트를 통해 얻을 수 있는 아이템이다. 판매 가능하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,20 +561,20 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1">
         <v>0</v>
@@ -568,13 +588,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -588,13 +608,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -608,13 +628,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -628,13 +648,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -648,13 +668,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -668,13 +688,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -688,13 +708,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -708,13 +728,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -728,13 +748,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -748,13 +768,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -768,13 +788,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -788,13 +808,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -808,13 +828,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -828,13 +848,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -848,13 +868,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -868,13 +888,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -888,13 +908,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -908,13 +928,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -928,13 +948,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -948,13 +968,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -968,13 +988,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -988,13 +1008,13 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>0</v>
